--- a/dbc.xlsx
+++ b/dbc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27135" windowHeight="12525" activeTab="2"/>
+    <workbookView windowWidth="27135" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="dbcmap" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6666" uniqueCount="2768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6667" uniqueCount="2768">
   <si>
     <t>Little Endian</t>
   </si>
@@ -10165,8 +10165,8 @@
   <sheetPr/>
   <dimension ref="A2:BN6"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AG3" sqref="Z2:AG3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="5"/>
@@ -10528,7 +10528,9 @@
       <c r="BC5" s="92"/>
       <c r="BD5" s="92"/>
       <c r="BE5" s="92"/>
-      <c r="BF5" s="92"/>
+      <c r="BF5" s="92" t="s">
+        <v>1</v>
+      </c>
       <c r="BG5" s="92"/>
       <c r="BH5" s="92"/>
       <c r="BI5" s="92"/>
@@ -12286,10 +12288,10 @@
   <sheetPr/>
   <dimension ref="A1:P1304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="E1201" sqref="E1201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>

--- a/dbc.xlsx
+++ b/dbc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27135" windowHeight="12525" activeTab="2"/>
+    <workbookView windowWidth="27135" windowHeight="12525" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="dbcmap" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6667" uniqueCount="2768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6666" uniqueCount="2768">
   <si>
     <t>Little Endian</t>
   </si>
@@ -10166,7 +10166,7 @@
   <dimension ref="A2:BN6"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14"/>
+      <selection activeCell="R5" sqref="R5:Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="5"/>
@@ -10765,7 +10765,7 @@
   <sheetPr/>
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A25" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -12288,8 +12288,8 @@
   <sheetPr/>
   <dimension ref="A1:P1304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="K138" sqref="K138"/>
     </sheetView>
@@ -67062,10 +67062,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S101"/>
+  <dimension ref="A1:S100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
@@ -67155,8 +67155,8 @@
         <v>1</v>
       </c>
       <c r="C2" s="39" t="str">
-        <f t="shared" ref="C2:C65" si="1">"S"&amp;DEC2HEX(A2,2)&amp;"_PID"</f>
-        <v>S09_PID</v>
+        <f>"S"&amp;DEC2HEX(A2,2)&amp;"_ITID"</f>
+        <v>S09_ITID</v>
       </c>
       <c r="D2" s="55" t="s">
         <v>2462</v>
@@ -67197,12 +67197,12 @@
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="str">
-        <f t="shared" ref="R2:R65" si="2">IF(F2="",""," SG_ "&amp;F2&amp;" m"&amp;B2&amp;" : "&amp;H2&amp;"|"&amp;I2&amp;"@"&amp;J2&amp;K2&amp;" ("&amp;L2&amp;","&amp;N2&amp;") ["&amp;O2&amp;"|"&amp;P2&amp;"] """&amp;M2&amp;""" TOOL")</f>
+        <f t="shared" ref="R2:R65" si="1">IF(F2="",""," SG_ "&amp;F2&amp;" m"&amp;B2&amp;" : "&amp;H2&amp;"|"&amp;I2&amp;"@"&amp;J2&amp;K2&amp;" ("&amp;L2&amp;","&amp;N2&amp;") ["&amp;O2&amp;"|"&amp;P2&amp;"] """&amp;M2&amp;""" TOOL")</f>
         <v> SG_ MC_VIN m1 : 32|8@1+ (1,0) [0|0] "" TOOL</v>
       </c>
       <c r="S2" s="1" t="str">
-        <f t="shared" ref="S2:S65" si="3">IF(F2="","","SG_MUL_VAL_ 2024 "&amp;F2&amp;" "&amp;C2&amp;" "&amp;SUBSTITUTE(B2,"M","")&amp;"-"&amp;SUBSTITUTE(B2,"M","")&amp;";")</f>
-        <v>SG_MUL_VAL_ 2024 MC_VIN S09_PID 1-1;</v>
+        <f t="shared" ref="S2:S65" si="2">IF(F2="","","SG_MUL_VAL_ 2024 "&amp;F2&amp;" "&amp;C2&amp;" "&amp;SUBSTITUTE(B2,"M","")&amp;"-"&amp;SUBSTITUTE(B2,"M","")&amp;";")</f>
+        <v>SG_MUL_VAL_ 2024 MC_VIN S09_ITID 1-1;</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="22.5" spans="1:19">
@@ -67213,8 +67213,8 @@
         <v>2</v>
       </c>
       <c r="C3" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" ref="C3:C34" si="3">"S"&amp;DEC2HEX(A3,2)&amp;"_ITID"</f>
+        <v>S09_ITID</v>
       </c>
       <c r="D3" s="56" t="s">
         <v>2466</v>
@@ -67255,12 +67255,12 @@
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> SG_ VIN m2 : 32|136@1+ (1,0) [0|0] "" TOOL</v>
+      </c>
+      <c r="S3" s="1" t="str">
         <f t="shared" si="2"/>
-        <v> SG_ VIN m2 : 32|136@1+ (1,0) [0|0] "" TOOL</v>
-      </c>
-      <c r="S3" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>SG_MUL_VAL_ 2024 VIN S09_PID 2-2;</v>
+        <v>SG_MUL_VAL_ 2024 VIN S09_ITID 2-2;</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="33.75" spans="1:19">
@@ -67272,8 +67272,8 @@
         <v>3</v>
       </c>
       <c r="C4" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="3"/>
+        <v>S09_ITID</v>
       </c>
       <c r="D4" s="56" t="s">
         <v>2470</v>
@@ -67314,12 +67314,12 @@
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> SG_ MC_CALID m3 : 32|8@1+ (1,0) [0|0] "" TOOL</v>
+      </c>
+      <c r="S4" s="1" t="str">
         <f t="shared" si="2"/>
-        <v> SG_ MC_CALID m3 : 32|8@1+ (1,0) [0|0] "" TOOL</v>
-      </c>
-      <c r="S4" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>SG_MUL_VAL_ 2024 MC_CALID S09_PID 3-3;</v>
+        <v>SG_MUL_VAL_ 2024 MC_CALID S09_ITID 3-3;</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="22.5" spans="1:19">
@@ -67331,8 +67331,8 @@
         <v>4</v>
       </c>
       <c r="C5" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="3"/>
+        <v>S09_ITID</v>
       </c>
       <c r="D5" s="56" t="s">
         <v>2473</v>
@@ -67374,12 +67374,12 @@
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> SG_ CALID m4 : 32|128@1+ (1,0) [0|0] "" TOOL</v>
+      </c>
+      <c r="S5" s="1" t="str">
         <f t="shared" si="2"/>
-        <v> SG_ CALID m4 : 32|128@1+ (1,0) [0|0] "" TOOL</v>
-      </c>
-      <c r="S5" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>SG_MUL_VAL_ 2024 CALID S09_PID 4-4;</v>
+        <v>SG_MUL_VAL_ 2024 CALID S09_ITID 4-4;</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="33.75" spans="1:19">
@@ -67391,8 +67391,8 @@
         <v>5</v>
       </c>
       <c r="C6" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="3"/>
+        <v>S09_ITID</v>
       </c>
       <c r="D6" s="56" t="s">
         <v>2477</v>
@@ -67433,12 +67433,12 @@
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> SG_ MC_CVN m5 : 32|8@1+ (1,0) [0|0] "" TOOL</v>
+      </c>
+      <c r="S6" s="1" t="str">
         <f t="shared" si="2"/>
-        <v> SG_ MC_CVN m5 : 32|8@1+ (1,0) [0|0] "" TOOL</v>
-      </c>
-      <c r="S6" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>SG_MUL_VAL_ 2024 MC_CVN S09_PID 5-5;</v>
+        <v>SG_MUL_VAL_ 2024 MC_CVN S09_ITID 5-5;</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="67.5" spans="1:19">
@@ -67450,8 +67450,8 @@
         <v>6</v>
       </c>
       <c r="C7" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="3"/>
+        <v>S09_ITID</v>
       </c>
       <c r="D7" s="56" t="s">
         <v>2480</v>
@@ -67493,12 +67493,12 @@
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> SG_ CVN m6 : 32|32@1+ (1,0) [0|0] "" TOOL</v>
+      </c>
+      <c r="S7" s="1" t="str">
         <f t="shared" si="2"/>
-        <v> SG_ CVN m6 : 32|32@1+ (1,0) [0|0] "" TOOL</v>
-      </c>
-      <c r="S7" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>SG_MUL_VAL_ 2024 CVN S09_PID 6-6;</v>
+        <v>SG_MUL_VAL_ 2024 CVN S09_ITID 6-6;</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="33.75" spans="1:19">
@@ -67510,8 +67510,8 @@
         <v>7</v>
       </c>
       <c r="C8" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="3"/>
+        <v>S09_ITID</v>
       </c>
       <c r="D8" s="56" t="s">
         <v>2484</v>
@@ -67552,12 +67552,12 @@
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> SG_ MC_IPT m7 : 32|8@1+ (1,0) [0|0] "" TOOL</v>
+      </c>
+      <c r="S8" s="1" t="str">
         <f t="shared" si="2"/>
-        <v> SG_ MC_IPT m7 : 32|8@1+ (1,0) [0|0] "" TOOL</v>
-      </c>
-      <c r="S8" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>SG_MUL_VAL_ 2024 MC_IPT S09_PID 7-7;</v>
+        <v>SG_MUL_VAL_ 2024 MC_IPT S09_ITID 7-7;</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:19">
@@ -67569,8 +67569,8 @@
         <v>8</v>
       </c>
       <c r="C9" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="3"/>
+        <v>S09_ITID</v>
       </c>
       <c r="D9" s="56" t="s">
         <v>2487</v>
@@ -67611,12 +67611,12 @@
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> SG_ IPT_OBDCOND m8 : 39|16@0+ (1,0) [0|0] "" TOOL</v>
+      </c>
+      <c r="S9" s="1" t="str">
         <f t="shared" si="2"/>
-        <v> SG_ IPT_OBDCOND m8 : 39|16@0+ (1,0) [0|0] "" TOOL</v>
-      </c>
-      <c r="S9" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>SG_MUL_VAL_ 2024 IPT_OBDCOND S09_PID 8-8;</v>
+        <v>SG_MUL_VAL_ 2024 IPT_OBDCOND S09_ITID 8-8;</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:19">
@@ -67628,8 +67628,8 @@
         <v>8</v>
       </c>
       <c r="C10" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="3"/>
+        <v>S09_ITID</v>
       </c>
       <c r="D10" s="56" t="s">
         <v>2487</v>
@@ -67671,12 +67671,12 @@
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> SG_ IPT_IGNCNTR m8 : 55|16@0+ (1,0) [0|0] "" TOOL</v>
+      </c>
+      <c r="S10" s="1" t="str">
         <f t="shared" si="2"/>
-        <v> SG_ IPT_IGNCNTR m8 : 55|16@0+ (1,0) [0|0] "" TOOL</v>
-      </c>
-      <c r="S10" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>SG_MUL_VAL_ 2024 IPT_IGNCNTR S09_PID 8-8;</v>
+        <v>SG_MUL_VAL_ 2024 IPT_IGNCNTR S09_ITID 8-8;</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:19">
@@ -67688,8 +67688,8 @@
         <v>8</v>
       </c>
       <c r="C11" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="3"/>
+        <v>S09_ITID</v>
       </c>
       <c r="D11" s="56" t="s">
         <v>2487</v>
@@ -67731,12 +67731,12 @@
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> SG_ IPT_CATCOMP1 m8 : 71|16@0+ (1,0) [0|0] "" TOOL</v>
+      </c>
+      <c r="S11" s="1" t="str">
         <f t="shared" si="2"/>
-        <v> SG_ IPT_CATCOMP1 m8 : 71|16@0+ (1,0) [0|0] "" TOOL</v>
-      </c>
-      <c r="S11" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>SG_MUL_VAL_ 2024 IPT_CATCOMP1 S09_PID 8-8;</v>
+        <v>SG_MUL_VAL_ 2024 IPT_CATCOMP1 S09_ITID 8-8;</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="22.5" spans="1:19">
@@ -67748,8 +67748,8 @@
         <v>8</v>
       </c>
       <c r="C12" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="3"/>
+        <v>S09_ITID</v>
       </c>
       <c r="D12" s="56" t="s">
         <v>2487</v>
@@ -67791,12 +67791,12 @@
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> SG_ IPT_CATCOND1 m8 : 87|16@0+ (1,0) [0|0] "" TOOL</v>
+      </c>
+      <c r="S12" s="1" t="str">
         <f t="shared" si="2"/>
-        <v> SG_ IPT_CATCOND1 m8 : 87|16@0+ (1,0) [0|0] "" TOOL</v>
-      </c>
-      <c r="S12" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>SG_MUL_VAL_ 2024 IPT_CATCOND1 S09_PID 8-8;</v>
+        <v>SG_MUL_VAL_ 2024 IPT_CATCOND1 S09_ITID 8-8;</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:19">
@@ -67808,8 +67808,8 @@
         <v>8</v>
       </c>
       <c r="C13" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="3"/>
+        <v>S09_ITID</v>
       </c>
       <c r="D13" s="56" t="s">
         <v>2487</v>
@@ -67851,12 +67851,12 @@
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> SG_ IPT_CATCOMP2 m8 : 103|16@0+ (1,0) [0|0] "" TOOL</v>
+      </c>
+      <c r="S13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v> SG_ IPT_CATCOMP2 m8 : 103|16@0+ (1,0) [0|0] "" TOOL</v>
-      </c>
-      <c r="S13" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>SG_MUL_VAL_ 2024 IPT_CATCOMP2 S09_PID 8-8;</v>
+        <v>SG_MUL_VAL_ 2024 IPT_CATCOMP2 S09_ITID 8-8;</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="22.5" spans="1:19">
@@ -67868,8 +67868,8 @@
         <v>8</v>
       </c>
       <c r="C14" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="3"/>
+        <v>S09_ITID</v>
       </c>
       <c r="D14" s="56" t="s">
         <v>2487</v>
@@ -67911,12 +67911,12 @@
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> SG_ IPT_CATCOND2 m8 : 119|16@0+ (1,0) [0|0] "" TOOL</v>
+      </c>
+      <c r="S14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v> SG_ IPT_CATCOND2 m8 : 119|16@0+ (1,0) [0|0] "" TOOL</v>
-      </c>
-      <c r="S14" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>SG_MUL_VAL_ 2024 IPT_CATCOND2 S09_PID 8-8;</v>
+        <v>SG_MUL_VAL_ 2024 IPT_CATCOND2 S09_ITID 8-8;</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:19">
@@ -67928,8 +67928,8 @@
         <v>8</v>
       </c>
       <c r="C15" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="3"/>
+        <v>S09_ITID</v>
       </c>
       <c r="D15" s="56" t="s">
         <v>2487</v>
@@ -67971,12 +67971,12 @@
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> SG_ IPT_O2SCOMP1 m8 : 135|16@0+ (1,0) [0|0] "" TOOL</v>
+      </c>
+      <c r="S15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v> SG_ IPT_O2SCOMP1 m8 : 135|16@0+ (1,0) [0|0] "" TOOL</v>
-      </c>
-      <c r="S15" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>SG_MUL_VAL_ 2024 IPT_O2SCOMP1 S09_PID 8-8;</v>
+        <v>SG_MUL_VAL_ 2024 IPT_O2SCOMP1 S09_ITID 8-8;</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="22.5" spans="1:19">
@@ -67988,8 +67988,8 @@
         <v>8</v>
       </c>
       <c r="C16" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="3"/>
+        <v>S09_ITID</v>
       </c>
       <c r="D16" s="56" t="s">
         <v>2487</v>
@@ -68031,12 +68031,12 @@
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> SG_ IPT_O2SCOND1 m8 : 151|16@0+ (1,0) [0|0] "" TOOL</v>
+      </c>
+      <c r="S16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v> SG_ IPT_O2SCOND1 m8 : 151|16@0+ (1,0) [0|0] "" TOOL</v>
-      </c>
-      <c r="S16" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>SG_MUL_VAL_ 2024 IPT_O2SCOND1 S09_PID 8-8;</v>
+        <v>SG_MUL_VAL_ 2024 IPT_O2SCOND1 S09_ITID 8-8;</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:19">
@@ -68048,8 +68048,8 @@
         <v>8</v>
       </c>
       <c r="C17" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="3"/>
+        <v>S09_ITID</v>
       </c>
       <c r="D17" s="56" t="s">
         <v>2487</v>
@@ -68091,12 +68091,12 @@
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> SG_ IPT_O2SCOMP2 m8 : 167|16@0+ (1,0) [0|0] "" TOOL</v>
+      </c>
+      <c r="S17" s="1" t="str">
         <f t="shared" si="2"/>
-        <v> SG_ IPT_O2SCOMP2 m8 : 167|16@0+ (1,0) [0|0] "" TOOL</v>
-      </c>
-      <c r="S17" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>SG_MUL_VAL_ 2024 IPT_O2SCOMP2 S09_PID 8-8;</v>
+        <v>SG_MUL_VAL_ 2024 IPT_O2SCOMP2 S09_ITID 8-8;</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="22.5" spans="1:19">
@@ -68108,8 +68108,8 @@
         <v>8</v>
       </c>
       <c r="C18" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="3"/>
+        <v>S09_ITID</v>
       </c>
       <c r="D18" s="56" t="s">
         <v>2487</v>
@@ -68151,12 +68151,12 @@
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> SG_ IPT_O2SCOND2 m8 : 183|16@0+ (1,0) [0|0] "" TOOL</v>
+      </c>
+      <c r="S18" s="1" t="str">
         <f t="shared" si="2"/>
-        <v> SG_ IPT_O2SCOND2 m8 : 183|16@0+ (1,0) [0|0] "" TOOL</v>
-      </c>
-      <c r="S18" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>SG_MUL_VAL_ 2024 IPT_O2SCOND2 S09_PID 8-8;</v>
+        <v>SG_MUL_VAL_ 2024 IPT_O2SCOND2 S09_ITID 8-8;</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="22.5" spans="1:19">
@@ -68168,8 +68168,8 @@
         <v>8</v>
       </c>
       <c r="C19" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="3"/>
+        <v>S09_ITID</v>
       </c>
       <c r="D19" s="56" t="s">
         <v>2487</v>
@@ -68211,12 +68211,12 @@
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> SG_ IPT_EGRCOMP m8 : 199|16@0+ (1,0) [0|0] "" TOOL</v>
+      </c>
+      <c r="S19" s="1" t="str">
         <f t="shared" si="2"/>
-        <v> SG_ IPT_EGRCOMP m8 : 199|16@0+ (1,0) [0|0] "" TOOL</v>
-      </c>
-      <c r="S19" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>SG_MUL_VAL_ 2024 IPT_EGRCOMP S09_PID 8-8;</v>
+        <v>SG_MUL_VAL_ 2024 IPT_EGRCOMP S09_ITID 8-8;</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="22.5" spans="1:19">
@@ -68228,8 +68228,8 @@
         <v>8</v>
       </c>
       <c r="C20" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="3"/>
+        <v>S09_ITID</v>
       </c>
       <c r="D20" s="56" t="s">
         <v>2487</v>
@@ -68271,12 +68271,12 @@
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> SG_ IPT_EGRCOND m8 : 215|16@0+ (1,0) [0|0] "" TOOL</v>
+      </c>
+      <c r="S20" s="1" t="str">
         <f t="shared" si="2"/>
-        <v> SG_ IPT_EGRCOND m8 : 215|16@0+ (1,0) [0|0] "" TOOL</v>
-      </c>
-      <c r="S20" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>SG_MUL_VAL_ 2024 IPT_EGRCOND S09_PID 8-8;</v>
+        <v>SG_MUL_VAL_ 2024 IPT_EGRCOND S09_ITID 8-8;</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="22.5" spans="1:19">
@@ -68288,8 +68288,8 @@
         <v>8</v>
       </c>
       <c r="C21" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="3"/>
+        <v>S09_ITID</v>
       </c>
       <c r="D21" s="56" t="s">
         <v>2487</v>
@@ -68331,12 +68331,12 @@
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> SG_ IPT_AIRCOMP m8 : 231|16@0+ (1,0) [0|0] "" TOOL</v>
+      </c>
+      <c r="S21" s="1" t="str">
         <f t="shared" si="2"/>
-        <v> SG_ IPT_AIRCOMP m8 : 231|16@0+ (1,0) [0|0] "" TOOL</v>
-      </c>
-      <c r="S21" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>SG_MUL_VAL_ 2024 IPT_AIRCOMP S09_PID 8-8;</v>
+        <v>SG_MUL_VAL_ 2024 IPT_AIRCOMP S09_ITID 8-8;</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="22.5" spans="1:19">
@@ -68348,8 +68348,8 @@
         <v>8</v>
       </c>
       <c r="C22" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="3"/>
+        <v>S09_ITID</v>
       </c>
       <c r="D22" s="56" t="s">
         <v>2487</v>
@@ -68391,12 +68391,12 @@
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> SG_ IPT_AIRCOND m8 : 247|16@0+ (1,0) [0|0] "" TOOL</v>
+      </c>
+      <c r="S22" s="1" t="str">
         <f t="shared" si="2"/>
-        <v> SG_ IPT_AIRCOND m8 : 247|16@0+ (1,0) [0|0] "" TOOL</v>
-      </c>
-      <c r="S22" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>SG_MUL_VAL_ 2024 IPT_AIRCOND S09_PID 8-8;</v>
+        <v>SG_MUL_VAL_ 2024 IPT_AIRCOND S09_ITID 8-8;</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:19">
@@ -68408,8 +68408,8 @@
         <v>8</v>
       </c>
       <c r="C23" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="3"/>
+        <v>S09_ITID</v>
       </c>
       <c r="D23" s="56" t="s">
         <v>2487</v>
@@ -68451,12 +68451,12 @@
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> SG_ IPT_EVAPCOMP m8 : 263|16@0+ (1,0) [0|0] "" TOOL</v>
+      </c>
+      <c r="S23" s="1" t="str">
         <f t="shared" si="2"/>
-        <v> SG_ IPT_EVAPCOMP m8 : 263|16@0+ (1,0) [0|0] "" TOOL</v>
-      </c>
-      <c r="S23" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>SG_MUL_VAL_ 2024 IPT_EVAPCOMP S09_PID 8-8;</v>
+        <v>SG_MUL_VAL_ 2024 IPT_EVAPCOMP S09_ITID 8-8;</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:19">
@@ -68468,8 +68468,8 @@
         <v>8</v>
       </c>
       <c r="C24" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="3"/>
+        <v>S09_ITID</v>
       </c>
       <c r="D24" s="56" t="s">
         <v>2487</v>
@@ -68511,12 +68511,12 @@
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> SG_ IPT_EVAPCOND m8 : 279|16@0+ (1,0) [0|0] "" TOOL</v>
+      </c>
+      <c r="S24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v> SG_ IPT_EVAPCOND m8 : 279|16@0+ (1,0) [0|0] "" TOOL</v>
-      </c>
-      <c r="S24" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>SG_MUL_VAL_ 2024 IPT_EVAPCOND S09_PID 8-8;</v>
+        <v>SG_MUL_VAL_ 2024 IPT_EVAPCOND S09_ITID 8-8;</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="22.5" spans="1:19">
@@ -68528,8 +68528,8 @@
         <v>8</v>
       </c>
       <c r="C25" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="3"/>
+        <v>S09_ITID</v>
       </c>
       <c r="D25" s="56" t="s">
         <v>2487</v>
@@ -68571,12 +68571,12 @@
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> SG_ IPT_SO2SCOMP1 m8 : 295|16@0+ (1,0) [0|0] "" TOOL</v>
+      </c>
+      <c r="S25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v> SG_ IPT_SO2SCOMP1 m8 : 295|16@0+ (1,0) [0|0] "" TOOL</v>
-      </c>
-      <c r="S25" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>SG_MUL_VAL_ 2024 IPT_SO2SCOMP1 S09_PID 8-8;</v>
+        <v>SG_MUL_VAL_ 2024 IPT_SO2SCOMP1 S09_ITID 8-8;</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="22.5" spans="1:19">
@@ -68588,8 +68588,8 @@
         <v>8</v>
       </c>
       <c r="C26" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="3"/>
+        <v>S09_ITID</v>
       </c>
       <c r="D26" s="56" t="s">
         <v>2487</v>
@@ -68631,12 +68631,12 @@
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> SG_ IPT_SO2SCOND1 m8 : 311|16@0+ (1,0) [0|0] "" TOOL</v>
+      </c>
+      <c r="S26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v> SG_ IPT_SO2SCOND1 m8 : 311|16@0+ (1,0) [0|0] "" TOOL</v>
-      </c>
-      <c r="S26" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>SG_MUL_VAL_ 2024 IPT_SO2SCOND1 S09_PID 8-8;</v>
+        <v>SG_MUL_VAL_ 2024 IPT_SO2SCOND1 S09_ITID 8-8;</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="22.5" spans="1:19">
@@ -68648,8 +68648,8 @@
         <v>8</v>
       </c>
       <c r="C27" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="3"/>
+        <v>S09_ITID</v>
       </c>
       <c r="D27" s="56" t="s">
         <v>2487</v>
@@ -68691,12 +68691,12 @@
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> SG_ IPT_SO2SCOMP2 m8 : 327|16@0+ (1,0) [0|0] "" TOOL</v>
+      </c>
+      <c r="S27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v> SG_ IPT_SO2SCOMP2 m8 : 327|16@0+ (1,0) [0|0] "" TOOL</v>
-      </c>
-      <c r="S27" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>SG_MUL_VAL_ 2024 IPT_SO2SCOMP2 S09_PID 8-8;</v>
+        <v>SG_MUL_VAL_ 2024 IPT_SO2SCOMP2 S09_ITID 8-8;</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="22.5" spans="1:19">
@@ -68708,8 +68708,8 @@
         <v>8</v>
       </c>
       <c r="C28" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="3"/>
+        <v>S09_ITID</v>
       </c>
       <c r="D28" s="56" t="s">
         <v>2487</v>
@@ -68751,12 +68751,12 @@
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> SG_ IPT_SO2SCOND2 m8 : 343|16@0+ (1,0) [0|0] "" TOOL</v>
+      </c>
+      <c r="S28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v> SG_ IPT_SO2SCOND2 m8 : 343|16@0+ (1,0) [0|0] "" TOOL</v>
-      </c>
-      <c r="S28" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>SG_MUL_VAL_ 2024 IPT_SO2SCOND2 S09_PID 8-8;</v>
+        <v>SG_MUL_VAL_ 2024 IPT_SO2SCOND2 S09_ITID 8-8;</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="22.5" spans="1:19">
@@ -68768,8 +68768,8 @@
         <v>8</v>
       </c>
       <c r="C29" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="3"/>
+        <v>S09_ITID</v>
       </c>
       <c r="D29" s="56" t="s">
         <v>2487</v>
@@ -68811,12 +68811,12 @@
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> SG_ IPT_AFRICOMP1 m8 : 359|16@0+ (1,0) [0|0] "" TOOL</v>
+      </c>
+      <c r="S29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v> SG_ IPT_AFRICOMP1 m8 : 359|16@0+ (1,0) [0|0] "" TOOL</v>
-      </c>
-      <c r="S29" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>SG_MUL_VAL_ 2024 IPT_AFRICOMP1 S09_PID 8-8;</v>
+        <v>SG_MUL_VAL_ 2024 IPT_AFRICOMP1 S09_ITID 8-8;</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="22.5" spans="1:19">
@@ -68828,8 +68828,8 @@
         <v>8</v>
       </c>
       <c r="C30" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="3"/>
+        <v>S09_ITID</v>
       </c>
       <c r="D30" s="56" t="s">
         <v>2487</v>
@@ -68871,12 +68871,12 @@
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> SG_ IPT_AFRICOND1 m8 : 375|16@0+ (1,0) [0|0] "" TOOL</v>
+      </c>
+      <c r="S30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v> SG_ IPT_AFRICOND1 m8 : 375|16@0+ (1,0) [0|0] "" TOOL</v>
-      </c>
-      <c r="S30" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>SG_MUL_VAL_ 2024 IPT_AFRICOND1 S09_PID 8-8;</v>
+        <v>SG_MUL_VAL_ 2024 IPT_AFRICOND1 S09_ITID 8-8;</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="22.5" spans="1:19">
@@ -68888,8 +68888,8 @@
         <v>8</v>
       </c>
       <c r="C31" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="3"/>
+        <v>S09_ITID</v>
       </c>
       <c r="D31" s="56" t="s">
         <v>2487</v>
@@ -68931,12 +68931,12 @@
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> SG_ IPT_AFRICOMP2 m8 : 391|16@0+ (1,0) [0|0] "" TOOL</v>
+      </c>
+      <c r="S31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v> SG_ IPT_AFRICOMP2 m8 : 391|16@0+ (1,0) [0|0] "" TOOL</v>
-      </c>
-      <c r="S31" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>SG_MUL_VAL_ 2024 IPT_AFRICOMP2 S09_PID 8-8;</v>
+        <v>SG_MUL_VAL_ 2024 IPT_AFRICOMP2 S09_ITID 8-8;</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="22.5" spans="1:19">
@@ -68948,8 +68948,8 @@
         <v>8</v>
       </c>
       <c r="C32" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="3"/>
+        <v>S09_ITID</v>
       </c>
       <c r="D32" s="56" t="s">
         <v>2487</v>
@@ -68991,12 +68991,12 @@
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> SG_ IPT_AFRICOND2 m8 : 407|16@0+ (1,0) [0|0] "" TOOL</v>
+      </c>
+      <c r="S32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v> SG_ IPT_AFRICOND2 m8 : 407|16@0+ (1,0) [0|0] "" TOOL</v>
-      </c>
-      <c r="S32" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>SG_MUL_VAL_ 2024 IPT_AFRICOND2 S09_PID 8-8;</v>
+        <v>SG_MUL_VAL_ 2024 IPT_AFRICOND2 S09_ITID 8-8;</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:19">
@@ -69008,8 +69008,8 @@
         <v>8</v>
       </c>
       <c r="C33" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="3"/>
+        <v>S09_ITID</v>
       </c>
       <c r="D33" s="56" t="s">
         <v>2487</v>
@@ -69051,12 +69051,12 @@
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> SG_ IPT_PFCOMP1 m8 : 423|16@0+ (1,0) [0|0] "" TOOL</v>
+      </c>
+      <c r="S33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v> SG_ IPT_PFCOMP1 m8 : 423|16@0+ (1,0) [0|0] "" TOOL</v>
-      </c>
-      <c r="S33" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>SG_MUL_VAL_ 2024 IPT_PFCOMP1 S09_PID 8-8;</v>
+        <v>SG_MUL_VAL_ 2024 IPT_PFCOMP1 S09_ITID 8-8;</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="22.5" spans="1:19">
@@ -69068,8 +69068,8 @@
         <v>8</v>
       </c>
       <c r="C34" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="3"/>
+        <v>S09_ITID</v>
       </c>
       <c r="D34" s="56" t="s">
         <v>2487</v>
@@ -69111,12 +69111,12 @@
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> SG_ IPT_PFCOND1 m8 : 439|16@0+ (1,0) [0|0] "" TOOL</v>
+      </c>
+      <c r="S34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v> SG_ IPT_PFCOND1 m8 : 439|16@0+ (1,0) [0|0] "" TOOL</v>
-      </c>
-      <c r="S34" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>SG_MUL_VAL_ 2024 IPT_PFCOND1 S09_PID 8-8;</v>
+        <v>SG_MUL_VAL_ 2024 IPT_PFCOND1 S09_ITID 8-8;</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:19">
@@ -69128,8 +69128,8 @@
         <v>8</v>
       </c>
       <c r="C35" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" ref="C35:C66" si="5">"S"&amp;DEC2HEX(A35,2)&amp;"_ITID"</f>
+        <v>S09_ITID</v>
       </c>
       <c r="D35" s="56" t="s">
         <v>2487</v>
@@ -69171,12 +69171,12 @@
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> SG_ IPT_PFCOMP2 m8 : 455|16@0+ (1,0) [0|0] "" TOOL</v>
+      </c>
+      <c r="S35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v> SG_ IPT_PFCOMP2 m8 : 455|16@0+ (1,0) [0|0] "" TOOL</v>
-      </c>
-      <c r="S35" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>SG_MUL_VAL_ 2024 IPT_PFCOMP2 S09_PID 8-8;</v>
+        <v>SG_MUL_VAL_ 2024 IPT_PFCOMP2 S09_ITID 8-8;</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" ht="22.5" spans="1:19">
@@ -69188,8 +69188,8 @@
         <v>8</v>
       </c>
       <c r="C36" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="5"/>
+        <v>S09_ITID</v>
       </c>
       <c r="D36" s="56" t="s">
         <v>2487</v>
@@ -69231,12 +69231,12 @@
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> SG_ IPT_PFCOND2 m8 : 471|16@0+ (1,0) [0|0] "" TOOL</v>
+      </c>
+      <c r="S36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v> SG_ IPT_PFCOND2 m8 : 471|16@0+ (1,0) [0|0] "" TOOL</v>
-      </c>
-      <c r="S36" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>SG_MUL_VAL_ 2024 IPT_PFCOND2 S09_PID 8-8;</v>
+        <v>SG_MUL_VAL_ 2024 IPT_PFCOND2 S09_ITID 8-8;</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:19">
@@ -69248,8 +69248,8 @@
         <v>0</v>
       </c>
       <c r="C37" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="5"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J37" s="1">
         <v>1</v>
@@ -69272,11 +69272,11 @@
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S37" s="1" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -69289,8 +69289,8 @@
         <v>0</v>
       </c>
       <c r="C38" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="5"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J38" s="1">
         <v>1</v>
@@ -69313,11 +69313,11 @@
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S38" s="1" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -69330,8 +69330,8 @@
         <v>0</v>
       </c>
       <c r="C39" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="5"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J39" s="1">
         <v>1</v>
@@ -69354,11 +69354,11 @@
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S39" s="1" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -69371,8 +69371,8 @@
         <v>0</v>
       </c>
       <c r="C40" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="5"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J40" s="1">
         <v>1</v>
@@ -69395,11 +69395,11 @@
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S40" s="1" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -69412,8 +69412,8 @@
         <v>0</v>
       </c>
       <c r="C41" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="5"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J41" s="1">
         <v>1</v>
@@ -69436,11 +69436,11 @@
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S41" s="1" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -69453,8 +69453,8 @@
         <v>0</v>
       </c>
       <c r="C42" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="5"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J42" s="1">
         <v>1</v>
@@ -69477,11 +69477,11 @@
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S42" s="1" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -69494,8 +69494,8 @@
         <v>0</v>
       </c>
       <c r="C43" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="5"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J43" s="1">
         <v>1</v>
@@ -69518,11 +69518,11 @@
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S43" s="1" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S43" s="1" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -69535,8 +69535,8 @@
         <v>0</v>
       </c>
       <c r="C44" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="5"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J44" s="1">
         <v>1</v>
@@ -69559,11 +69559,11 @@
       </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S44" s="1" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S44" s="1" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -69576,8 +69576,8 @@
         <v>0</v>
       </c>
       <c r="C45" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="5"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J45" s="1">
         <v>1</v>
@@ -69600,11 +69600,11 @@
       </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S45" s="1" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S45" s="1" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -69617,8 +69617,8 @@
         <v>0</v>
       </c>
       <c r="C46" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="5"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J46" s="1">
         <v>1</v>
@@ -69641,11 +69641,11 @@
       </c>
       <c r="Q46" s="1"/>
       <c r="R46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S46" s="1" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S46" s="1" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -69658,8 +69658,8 @@
         <v>0</v>
       </c>
       <c r="C47" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="5"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J47" s="1">
         <v>1</v>
@@ -69682,11 +69682,11 @@
       </c>
       <c r="Q47" s="1"/>
       <c r="R47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S47" s="1" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S47" s="1" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -69699,8 +69699,8 @@
         <v>0</v>
       </c>
       <c r="C48" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="5"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J48" s="1">
         <v>1</v>
@@ -69723,11 +69723,11 @@
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S48" s="1" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S48" s="1" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -69740,8 +69740,8 @@
         <v>0</v>
       </c>
       <c r="C49" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="5"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J49" s="1">
         <v>1</v>
@@ -69764,11 +69764,11 @@
       </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S49" s="1" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S49" s="1" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -69781,8 +69781,8 @@
         <v>0</v>
       </c>
       <c r="C50" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="5"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
@@ -69805,11 +69805,11 @@
       </c>
       <c r="Q50" s="1"/>
       <c r="R50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S50" s="1" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S50" s="1" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -69822,8 +69822,8 @@
         <v>0</v>
       </c>
       <c r="C51" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="5"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J51" s="1">
         <v>1</v>
@@ -69846,11 +69846,11 @@
       </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S51" s="1" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S51" s="1" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -69863,8 +69863,8 @@
         <v>0</v>
       </c>
       <c r="C52" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="5"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J52" s="1">
         <v>1</v>
@@ -69887,11 +69887,11 @@
       </c>
       <c r="Q52" s="1"/>
       <c r="R52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S52" s="1" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S52" s="1" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -69904,8 +69904,8 @@
         <v>0</v>
       </c>
       <c r="C53" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="5"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J53" s="1">
         <v>1</v>
@@ -69928,11 +69928,11 @@
       </c>
       <c r="Q53" s="1"/>
       <c r="R53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S53" s="1" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S53" s="1" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -69945,8 +69945,8 @@
         <v>0</v>
       </c>
       <c r="C54" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="5"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J54" s="1">
         <v>1</v>
@@ -69969,11 +69969,11 @@
       </c>
       <c r="Q54" s="1"/>
       <c r="R54" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S54" s="1" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S54" s="1" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -69986,8 +69986,8 @@
         <v>0</v>
       </c>
       <c r="C55" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="5"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J55" s="1">
         <v>1</v>
@@ -70010,11 +70010,11 @@
       </c>
       <c r="Q55" s="1"/>
       <c r="R55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S55" s="1" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S55" s="1" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -70027,8 +70027,8 @@
         <v>0</v>
       </c>
       <c r="C56" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="5"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J56" s="1">
         <v>1</v>
@@ -70051,11 +70051,11 @@
       </c>
       <c r="Q56" s="1"/>
       <c r="R56" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S56" s="1" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S56" s="1" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -70068,8 +70068,8 @@
         <v>0</v>
       </c>
       <c r="C57" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="5"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J57" s="1">
         <v>1</v>
@@ -70092,11 +70092,11 @@
       </c>
       <c r="Q57" s="1"/>
       <c r="R57" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S57" s="1" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S57" s="1" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -70109,8 +70109,8 @@
         <v>0</v>
       </c>
       <c r="C58" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="5"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J58" s="1">
         <v>1</v>
@@ -70133,11 +70133,11 @@
       </c>
       <c r="Q58" s="1"/>
       <c r="R58" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S58" s="1" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S58" s="1" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -70150,8 +70150,8 @@
         <v>0</v>
       </c>
       <c r="C59" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="5"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J59" s="1">
         <v>1</v>
@@ -70174,11 +70174,11 @@
       </c>
       <c r="Q59" s="1"/>
       <c r="R59" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S59" s="1" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S59" s="1" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -70191,8 +70191,8 @@
         <v>0</v>
       </c>
       <c r="C60" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="5"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J60" s="1">
         <v>1</v>
@@ -70215,11 +70215,11 @@
       </c>
       <c r="Q60" s="1"/>
       <c r="R60" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S60" s="1" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S60" s="1" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -70232,8 +70232,8 @@
         <v>0</v>
       </c>
       <c r="C61" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="5"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J61" s="1">
         <v>1</v>
@@ -70256,11 +70256,11 @@
       </c>
       <c r="Q61" s="1"/>
       <c r="R61" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S61" s="1" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S61" s="1" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -70273,8 +70273,8 @@
         <v>0</v>
       </c>
       <c r="C62" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="5"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J62" s="1">
         <v>1</v>
@@ -70297,11 +70297,11 @@
       </c>
       <c r="Q62" s="1"/>
       <c r="R62" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S62" s="1" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S62" s="1" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -70314,8 +70314,8 @@
         <v>0</v>
       </c>
       <c r="C63" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="5"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J63" s="1">
         <v>1</v>
@@ -70338,11 +70338,11 @@
       </c>
       <c r="Q63" s="1"/>
       <c r="R63" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S63" s="1" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S63" s="1" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -70355,8 +70355,8 @@
         <v>0</v>
       </c>
       <c r="C64" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="5"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J64" s="1">
         <v>1</v>
@@ -70379,11 +70379,11 @@
       </c>
       <c r="Q64" s="1"/>
       <c r="R64" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S64" s="1" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S64" s="1" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -70396,8 +70396,8 @@
         <v>0</v>
       </c>
       <c r="C65" s="39" t="str">
-        <f t="shared" si="1"/>
-        <v>S09_PID</v>
+        <f t="shared" si="5"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J65" s="1">
         <v>1</v>
@@ -70420,11 +70420,11 @@
       </c>
       <c r="Q65" s="1"/>
       <c r="R65" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S65" s="1" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S65" s="1" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -70437,8 +70437,8 @@
         <v>0</v>
       </c>
       <c r="C66" s="39" t="str">
-        <f t="shared" ref="C66:C101" si="5">"S"&amp;DEC2HEX(A66,2)&amp;"_PID"</f>
-        <v>S09_PID</v>
+        <f t="shared" si="5"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J66" s="1">
         <v>1</v>
@@ -70478,8 +70478,8 @@
         <v>0</v>
       </c>
       <c r="C67" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v>S09_PID</v>
+        <f t="shared" ref="C67:C98" si="9">"S"&amp;DEC2HEX(A67,2)&amp;"_ITID"</f>
+        <v>S09_ITID</v>
       </c>
       <c r="J67" s="1">
         <v>1</v>
@@ -70519,8 +70519,8 @@
         <v>0</v>
       </c>
       <c r="C68" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v>S09_PID</v>
+        <f t="shared" si="9"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J68" s="1">
         <v>1</v>
@@ -70560,8 +70560,8 @@
         <v>0</v>
       </c>
       <c r="C69" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v>S09_PID</v>
+        <f t="shared" si="9"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J69" s="1">
         <v>1</v>
@@ -70601,8 +70601,8 @@
         <v>0</v>
       </c>
       <c r="C70" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v>S09_PID</v>
+        <f t="shared" si="9"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J70" s="1">
         <v>1</v>
@@ -70642,8 +70642,8 @@
         <v>0</v>
       </c>
       <c r="C71" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v>S09_PID</v>
+        <f t="shared" si="9"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J71" s="1">
         <v>1</v>
@@ -70683,8 +70683,8 @@
         <v>0</v>
       </c>
       <c r="C72" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v>S09_PID</v>
+        <f t="shared" si="9"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J72" s="1">
         <v>1</v>
@@ -70724,8 +70724,8 @@
         <v>0</v>
       </c>
       <c r="C73" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v>S09_PID</v>
+        <f t="shared" si="9"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J73" s="1">
         <v>1</v>
@@ -70765,8 +70765,8 @@
         <v>0</v>
       </c>
       <c r="C74" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v>S09_PID</v>
+        <f t="shared" si="9"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J74" s="1">
         <v>1</v>
@@ -70806,8 +70806,8 @@
         <v>0</v>
       </c>
       <c r="C75" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v>S09_PID</v>
+        <f t="shared" si="9"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J75" s="1">
         <v>1</v>
@@ -70847,8 +70847,8 @@
         <v>0</v>
       </c>
       <c r="C76" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v>S09_PID</v>
+        <f t="shared" si="9"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J76" s="1">
         <v>1</v>
@@ -70888,8 +70888,8 @@
         <v>0</v>
       </c>
       <c r="C77" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v>S09_PID</v>
+        <f t="shared" si="9"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J77" s="1">
         <v>1</v>
@@ -70929,8 +70929,8 @@
         <v>0</v>
       </c>
       <c r="C78" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v>S09_PID</v>
+        <f t="shared" si="9"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J78" s="1">
         <v>1</v>
@@ -70970,8 +70970,8 @@
         <v>0</v>
       </c>
       <c r="C79" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v>S09_PID</v>
+        <f t="shared" si="9"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J79" s="1">
         <v>1</v>
@@ -71011,8 +71011,8 @@
         <v>0</v>
       </c>
       <c r="C80" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v>S09_PID</v>
+        <f t="shared" si="9"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J80" s="1">
         <v>1</v>
@@ -71052,8 +71052,8 @@
         <v>0</v>
       </c>
       <c r="C81" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v>S09_PID</v>
+        <f t="shared" si="9"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J81" s="1">
         <v>1</v>
@@ -71093,8 +71093,8 @@
         <v>0</v>
       </c>
       <c r="C82" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v>S09_PID</v>
+        <f t="shared" si="9"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J82" s="1">
         <v>1</v>
@@ -71134,8 +71134,8 @@
         <v>0</v>
       </c>
       <c r="C83" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v>S09_PID</v>
+        <f t="shared" si="9"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J83" s="1">
         <v>1</v>
@@ -71175,8 +71175,8 @@
         <v>0</v>
       </c>
       <c r="C84" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v>S09_PID</v>
+        <f t="shared" si="9"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J84" s="1">
         <v>1</v>
@@ -71216,8 +71216,8 @@
         <v>0</v>
       </c>
       <c r="C85" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v>S09_PID</v>
+        <f t="shared" si="9"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J85" s="1">
         <v>1</v>
@@ -71257,8 +71257,8 @@
         <v>0</v>
       </c>
       <c r="C86" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v>S09_PID</v>
+        <f t="shared" si="9"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J86" s="1">
         <v>1</v>
@@ -71298,8 +71298,8 @@
         <v>0</v>
       </c>
       <c r="C87" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v>S09_PID</v>
+        <f t="shared" si="9"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J87" s="1">
         <v>1</v>
@@ -71339,8 +71339,8 @@
         <v>0</v>
       </c>
       <c r="C88" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v>S09_PID</v>
+        <f t="shared" si="9"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J88" s="1">
         <v>1</v>
@@ -71380,8 +71380,8 @@
         <v>0</v>
       </c>
       <c r="C89" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v>S09_PID</v>
+        <f t="shared" si="9"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J89" s="1">
         <v>1</v>
@@ -71421,8 +71421,8 @@
         <v>0</v>
       </c>
       <c r="C90" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v>S09_PID</v>
+        <f t="shared" si="9"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J90" s="1">
         <v>1</v>
@@ -71462,8 +71462,8 @@
         <v>0</v>
       </c>
       <c r="C91" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v>S09_PID</v>
+        <f t="shared" si="9"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J91" s="1">
         <v>1</v>
@@ -71503,8 +71503,8 @@
         <v>0</v>
       </c>
       <c r="C92" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v>S09_PID</v>
+        <f t="shared" si="9"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J92" s="1">
         <v>1</v>
@@ -71544,8 +71544,8 @@
         <v>0</v>
       </c>
       <c r="C93" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v>S09_PID</v>
+        <f t="shared" si="9"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J93" s="1">
         <v>1</v>
@@ -71585,8 +71585,8 @@
         <v>0</v>
       </c>
       <c r="C94" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v>S09_PID</v>
+        <f t="shared" si="9"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J94" s="1">
         <v>1</v>
@@ -71626,8 +71626,8 @@
         <v>0</v>
       </c>
       <c r="C95" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v>S09_PID</v>
+        <f t="shared" si="9"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J95" s="1">
         <v>1</v>
@@ -71667,8 +71667,8 @@
         <v>0</v>
       </c>
       <c r="C96" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v>S09_PID</v>
+        <f t="shared" si="9"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J96" s="1">
         <v>1</v>
@@ -71708,8 +71708,8 @@
         <v>0</v>
       </c>
       <c r="C97" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v>S09_PID</v>
+        <f t="shared" si="9"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J97" s="1">
         <v>1</v>
@@ -71749,8 +71749,8 @@
         <v>0</v>
       </c>
       <c r="C98" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v>S09_PID</v>
+        <f t="shared" si="9"/>
+        <v>S09_ITID</v>
       </c>
       <c r="J98" s="1">
         <v>1</v>
@@ -71790,8 +71790,8 @@
         <v>0</v>
       </c>
       <c r="C99" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v>S09_PID</v>
+        <f>"S"&amp;DEC2HEX(A99,2)&amp;"_ITID"</f>
+        <v>S09_ITID</v>
       </c>
       <c r="J99" s="1">
         <v>1</v>
@@ -71831,8 +71831,8 @@
         <v>0</v>
       </c>
       <c r="C100" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v>S09_PID</v>
+        <f>"S"&amp;DEC2HEX(A100,2)&amp;"_ITID"</f>
+        <v>S09_ITID</v>
       </c>
       <c r="J100" s="1">
         <v>1</v>
@@ -71859,47 +71859,6 @@
         <v/>
       </c>
       <c r="S100" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="101" s="1" customFormat="1" spans="1:19">
-      <c r="A101" s="1">
-        <v>3</v>
-      </c>
-      <c r="B101" s="54">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C101" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v>S03_PID</v>
-      </c>
-      <c r="J101" s="1">
-        <v>1</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L101" s="1">
-        <v>1</v>
-      </c>
-      <c r="M101" s="1"/>
-      <c r="N101" s="1">
-        <v>0</v>
-      </c>
-      <c r="O101" s="2">
-        <v>0</v>
-      </c>
-      <c r="P101" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="1"/>
-      <c r="R101" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="S101" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
